--- a/data/pca/factorExposure/factorExposure_2011-10-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01351504516292629</v>
+        <v>-0.01462502362969377</v>
       </c>
       <c r="C2">
-        <v>-0.02717094217574546</v>
+        <v>-0.01392242434542003</v>
       </c>
       <c r="D2">
-        <v>0.01639986088377743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02237743373761065</v>
+      </c>
+      <c r="E2">
+        <v>-0.01246400504788227</v>
+      </c>
+      <c r="F2">
+        <v>0.03557265580740587</v>
+      </c>
+      <c r="G2">
+        <v>-0.01270826397900487</v>
+      </c>
+      <c r="H2">
+        <v>-0.02247614720683129</v>
+      </c>
+      <c r="I2">
+        <v>0.03214938168062737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07962945082927481</v>
+        <v>-0.09125599636313984</v>
       </c>
       <c r="C4">
-        <v>-0.05852362281383289</v>
+        <v>0.00187438150127444</v>
       </c>
       <c r="D4">
-        <v>0.07496736320925532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08281343693007769</v>
+      </c>
+      <c r="E4">
+        <v>-0.004517213506866583</v>
+      </c>
+      <c r="F4">
+        <v>0.04327868277684443</v>
+      </c>
+      <c r="G4">
+        <v>0.02285557026090337</v>
+      </c>
+      <c r="H4">
+        <v>0.03322062609811355</v>
+      </c>
+      <c r="I4">
+        <v>0.04880737968738624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1153557236606059</v>
+        <v>-0.125962491428924</v>
       </c>
       <c r="C6">
-        <v>-0.05256078641536472</v>
+        <v>-0.02629467773730037</v>
       </c>
       <c r="D6">
-        <v>0.0008692877131991702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02515002817849332</v>
+      </c>
+      <c r="E6">
+        <v>0.02526979076106332</v>
+      </c>
+      <c r="F6">
+        <v>0.04890120701319191</v>
+      </c>
+      <c r="G6">
+        <v>0.03682458796633221</v>
+      </c>
+      <c r="H6">
+        <v>-0.172436733105634</v>
+      </c>
+      <c r="I6">
+        <v>-0.02152262047574349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.058771053928698</v>
+        <v>-0.06508734967621342</v>
       </c>
       <c r="C7">
-        <v>-0.04162072103363626</v>
+        <v>0.006701413148461969</v>
       </c>
       <c r="D7">
-        <v>0.03053098710821132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.06013970423105727</v>
+      </c>
+      <c r="E7">
+        <v>-0.01741194074009606</v>
+      </c>
+      <c r="F7">
+        <v>0.04947122481937923</v>
+      </c>
+      <c r="G7">
+        <v>-0.0203209325012047</v>
+      </c>
+      <c r="H7">
+        <v>0.01854610962570815</v>
+      </c>
+      <c r="I7">
+        <v>-0.0006198113245484137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03796302285613939</v>
+        <v>-0.04286340419698774</v>
       </c>
       <c r="C8">
-        <v>-0.01334053220451757</v>
+        <v>0.005465247335549241</v>
       </c>
       <c r="D8">
-        <v>0.06347162453486299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02946796465315844</v>
+      </c>
+      <c r="E8">
+        <v>-0.005305788851628403</v>
+      </c>
+      <c r="F8">
+        <v>0.08040764447668398</v>
+      </c>
+      <c r="G8">
+        <v>0.08583577044190169</v>
+      </c>
+      <c r="H8">
+        <v>-0.01761784254512723</v>
+      </c>
+      <c r="I8">
+        <v>0.09136527241764288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07500446973423588</v>
+        <v>-0.08254508485582049</v>
       </c>
       <c r="C9">
-        <v>-0.04704297334843924</v>
+        <v>0.007115563494621442</v>
       </c>
       <c r="D9">
-        <v>0.07042859063412729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.07152428562442231</v>
+      </c>
+      <c r="E9">
+        <v>-0.01706009669702787</v>
+      </c>
+      <c r="F9">
+        <v>0.03975536299708221</v>
+      </c>
+      <c r="G9">
+        <v>0.03660786690377456</v>
+      </c>
+      <c r="H9">
+        <v>0.03379883326981344</v>
+      </c>
+      <c r="I9">
+        <v>0.05293952277218969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02567821256956187</v>
+        <v>-0.05314012144348326</v>
       </c>
       <c r="C10">
-        <v>-0.01214316983635944</v>
+        <v>-0.138388485389644</v>
       </c>
       <c r="D10">
-        <v>-0.1737607544780579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1352894489893526</v>
+      </c>
+      <c r="E10">
+        <v>-0.02622694078451622</v>
+      </c>
+      <c r="F10">
+        <v>0.05850164272424035</v>
+      </c>
+      <c r="G10">
+        <v>-0.03919111696489733</v>
+      </c>
+      <c r="H10">
+        <v>-0.03294210572953787</v>
+      </c>
+      <c r="I10">
+        <v>-0.03287806374513715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06844452998032476</v>
+        <v>-0.07303030701672418</v>
       </c>
       <c r="C11">
-        <v>-0.04370231214616405</v>
+        <v>0.009590696867313862</v>
       </c>
       <c r="D11">
-        <v>0.05482934194513717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06386116002417656</v>
+      </c>
+      <c r="E11">
+        <v>-0.001758020659622916</v>
+      </c>
+      <c r="F11">
+        <v>0.04072553431666659</v>
+      </c>
+      <c r="G11">
+        <v>0.04506205712811461</v>
+      </c>
+      <c r="H11">
+        <v>0.05573900814513106</v>
+      </c>
+      <c r="I11">
+        <v>0.0606273028472511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06157250273564831</v>
+        <v>-0.06803273434596151</v>
       </c>
       <c r="C12">
-        <v>-0.05401424327011402</v>
+        <v>-0.003463269559023233</v>
       </c>
       <c r="D12">
-        <v>0.0434649082674439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.06031143307926527</v>
+      </c>
+      <c r="E12">
+        <v>-0.008486665184496547</v>
+      </c>
+      <c r="F12">
+        <v>0.02957824914806891</v>
+      </c>
+      <c r="G12">
+        <v>0.02209520812182296</v>
+      </c>
+      <c r="H12">
+        <v>0.02572715873783915</v>
+      </c>
+      <c r="I12">
+        <v>0.06077352334734595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06792235933658859</v>
+        <v>-0.06932947430073615</v>
       </c>
       <c r="C13">
-        <v>-0.04738777964813183</v>
+        <v>-0.006620817720508271</v>
       </c>
       <c r="D13">
-        <v>0.04636421348792812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04891071462089376</v>
+      </c>
+      <c r="E13">
+        <v>-0.006561165788157832</v>
+      </c>
+      <c r="F13">
+        <v>0.02043046412058908</v>
+      </c>
+      <c r="G13">
+        <v>0.02760764372548181</v>
+      </c>
+      <c r="H13">
+        <v>0.04414847342803591</v>
+      </c>
+      <c r="I13">
+        <v>0.06685964418772919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03114939152457657</v>
+        <v>-0.04128787515181741</v>
       </c>
       <c r="C14">
-        <v>-0.03034716418230207</v>
+        <v>-0.01794009130313587</v>
       </c>
       <c r="D14">
-        <v>-0.001965929850243398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02649547835569435</v>
+      </c>
+      <c r="E14">
+        <v>-0.01954781659497343</v>
+      </c>
+      <c r="F14">
+        <v>0.02095481923537979</v>
+      </c>
+      <c r="G14">
+        <v>0.01939714141021056</v>
+      </c>
+      <c r="H14">
+        <v>0.06858720744673662</v>
+      </c>
+      <c r="I14">
+        <v>0.02304787756947153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04299255673518558</v>
+        <v>-0.04075944457458336</v>
       </c>
       <c r="C15">
-        <v>-0.00808621070899901</v>
+        <v>0.006789427816502578</v>
       </c>
       <c r="D15">
-        <v>0.02727596563376932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01145375843310577</v>
+      </c>
+      <c r="E15">
+        <v>-0.02902493224360212</v>
+      </c>
+      <c r="F15">
+        <v>0.004476996301971657</v>
+      </c>
+      <c r="G15">
+        <v>0.02919694449839681</v>
+      </c>
+      <c r="H15">
+        <v>0.03058916329991981</v>
+      </c>
+      <c r="I15">
+        <v>-0.01576538273064681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0575034168015207</v>
+        <v>-0.06938272999190086</v>
       </c>
       <c r="C16">
-        <v>-0.04142447406645396</v>
+        <v>0.007598518567991867</v>
       </c>
       <c r="D16">
-        <v>0.05347780678157481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0664995145150605</v>
+      </c>
+      <c r="E16">
+        <v>-0.004008091022352727</v>
+      </c>
+      <c r="F16">
+        <v>0.03499348735670194</v>
+      </c>
+      <c r="G16">
+        <v>0.02189220398755513</v>
+      </c>
+      <c r="H16">
+        <v>0.04242735705996099</v>
+      </c>
+      <c r="I16">
+        <v>0.03774829648536388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06483477428056748</v>
+        <v>-0.06401749777164496</v>
       </c>
       <c r="C20">
-        <v>-0.02844576389413406</v>
+        <v>0.01293279725367278</v>
       </c>
       <c r="D20">
-        <v>0.0486698656548626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04194062272424876</v>
+      </c>
+      <c r="E20">
+        <v>-0.001157746869807192</v>
+      </c>
+      <c r="F20">
+        <v>0.02648290792642844</v>
+      </c>
+      <c r="G20">
+        <v>0.02272026871362222</v>
+      </c>
+      <c r="H20">
+        <v>0.04254160146850856</v>
+      </c>
+      <c r="I20">
+        <v>0.06704566963295715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03197644543118282</v>
+        <v>-0.0263526820449864</v>
       </c>
       <c r="C21">
-        <v>-0.01204972822120569</v>
+        <v>0.01022834933364612</v>
       </c>
       <c r="D21">
-        <v>0.01015209105127602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01936431531196396</v>
+      </c>
+      <c r="E21">
+        <v>-0.03417173365733393</v>
+      </c>
+      <c r="F21">
+        <v>-0.008127461716471626</v>
+      </c>
+      <c r="G21">
+        <v>0.01234391374263631</v>
+      </c>
+      <c r="H21">
+        <v>-0.03893434538920251</v>
+      </c>
+      <c r="I21">
+        <v>-0.02287949477756569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0847479069099014</v>
+        <v>-0.07690273347687869</v>
       </c>
       <c r="C22">
-        <v>-0.08302497329511796</v>
+        <v>0.0004119362543720184</v>
       </c>
       <c r="D22">
-        <v>0.1275621014171743</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.109937710197112</v>
+      </c>
+      <c r="E22">
+        <v>-0.6076788523295352</v>
+      </c>
+      <c r="F22">
+        <v>-0.006532128966481364</v>
+      </c>
+      <c r="G22">
+        <v>-0.1984594095139587</v>
+      </c>
+      <c r="H22">
+        <v>-0.1293936714943933</v>
+      </c>
+      <c r="I22">
+        <v>-0.1210450100588836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.08507142752731046</v>
+        <v>-0.07742366017672121</v>
       </c>
       <c r="C23">
-        <v>-0.08368067155601672</v>
+        <v>6.749678734603426e-05</v>
       </c>
       <c r="D23">
-        <v>0.1276838047209806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1109787881831905</v>
+      </c>
+      <c r="E23">
+        <v>-0.610400103669425</v>
+      </c>
+      <c r="F23">
+        <v>-0.004971616434055447</v>
+      </c>
+      <c r="G23">
+        <v>-0.192877282270501</v>
+      </c>
+      <c r="H23">
+        <v>-0.1288747586469851</v>
+      </c>
+      <c r="I23">
+        <v>-0.1231778477115443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07444110515284358</v>
+        <v>-0.07935801370262491</v>
       </c>
       <c r="C24">
-        <v>-0.05182526413612611</v>
+        <v>0.003589858386030286</v>
       </c>
       <c r="D24">
-        <v>0.05786263892392061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06700104068581189</v>
+      </c>
+      <c r="E24">
+        <v>-0.0106300477249794</v>
+      </c>
+      <c r="F24">
+        <v>0.04183574969603053</v>
+      </c>
+      <c r="G24">
+        <v>0.03862449486536328</v>
+      </c>
+      <c r="H24">
+        <v>0.02518498067044424</v>
+      </c>
+      <c r="I24">
+        <v>0.05109835327185749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07171544544400053</v>
+        <v>-0.07729875865984764</v>
       </c>
       <c r="C25">
-        <v>-0.05748778068377789</v>
+        <v>-0.006424076919444172</v>
       </c>
       <c r="D25">
-        <v>0.05540243052826669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06398953632410541</v>
+      </c>
+      <c r="E25">
+        <v>-0.01602275758203164</v>
+      </c>
+      <c r="F25">
+        <v>0.03761855964724885</v>
+      </c>
+      <c r="G25">
+        <v>0.04613340584625263</v>
+      </c>
+      <c r="H25">
+        <v>0.03261739565387996</v>
+      </c>
+      <c r="I25">
+        <v>0.06510698017657206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0449541429929276</v>
+        <v>-0.04607679454041564</v>
       </c>
       <c r="C26">
-        <v>-0.01430839782892465</v>
+        <v>0.005645581576540398</v>
       </c>
       <c r="D26">
-        <v>0.01442172063313812</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01867577258421801</v>
+      </c>
+      <c r="E26">
+        <v>-0.04238056847902034</v>
+      </c>
+      <c r="F26">
+        <v>0.02686958642387931</v>
+      </c>
+      <c r="G26">
+        <v>0.02381132045254745</v>
+      </c>
+      <c r="H26">
+        <v>0.04262938256199186</v>
+      </c>
+      <c r="I26">
+        <v>-0.05082325492088858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04286854919795188</v>
+        <v>-0.07419008738294994</v>
       </c>
       <c r="C28">
-        <v>-0.04597404601175272</v>
+        <v>-0.2331026738025775</v>
       </c>
       <c r="D28">
-        <v>-0.3103437003488174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2159268553496438</v>
+      </c>
+      <c r="E28">
+        <v>-0.02608919654587426</v>
+      </c>
+      <c r="F28">
+        <v>0.05532860943494667</v>
+      </c>
+      <c r="G28">
+        <v>0.02047032358202521</v>
+      </c>
+      <c r="H28">
+        <v>-0.06743883099656199</v>
+      </c>
+      <c r="I28">
+        <v>-0.06964801786667567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.04739822420155365</v>
+        <v>-0.05175875720815748</v>
       </c>
       <c r="C29">
-        <v>-0.04064054299898755</v>
+        <v>-0.02040684766873673</v>
       </c>
       <c r="D29">
-        <v>-0.0007367119307972121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02850436355721615</v>
+      </c>
+      <c r="E29">
+        <v>-0.04406908602443256</v>
+      </c>
+      <c r="F29">
+        <v>0.02870128551860627</v>
+      </c>
+      <c r="G29">
+        <v>0.0100301560680332</v>
+      </c>
+      <c r="H29">
+        <v>0.09495722331549773</v>
+      </c>
+      <c r="I29">
+        <v>0.006035907493769897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1362774803040136</v>
+        <v>-0.1302788069227939</v>
       </c>
       <c r="C30">
-        <v>-0.0957137583140739</v>
+        <v>-0.01033251813542974</v>
       </c>
       <c r="D30">
-        <v>0.09954625036519309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09752091253554793</v>
+      </c>
+      <c r="E30">
+        <v>-0.05962417655661903</v>
+      </c>
+      <c r="F30">
+        <v>0.03190246350736724</v>
+      </c>
+      <c r="G30">
+        <v>0.06779124290126501</v>
+      </c>
+      <c r="H30">
+        <v>-0.05776117021252324</v>
+      </c>
+      <c r="I30">
+        <v>0.16911860173454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04931606584639116</v>
+        <v>-0.04834692867922229</v>
       </c>
       <c r="C31">
-        <v>-0.02499984046910135</v>
+        <v>0.008662663247755132</v>
       </c>
       <c r="D31">
-        <v>0.01925363284149247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03627509157519249</v>
+      </c>
+      <c r="E31">
+        <v>-0.01850512478805346</v>
+      </c>
+      <c r="F31">
+        <v>0.01502813102850843</v>
+      </c>
+      <c r="G31">
+        <v>0.001572029097304833</v>
+      </c>
+      <c r="H31">
+        <v>0.06999804709608183</v>
+      </c>
+      <c r="I31">
+        <v>0.01196040486005244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03874642503815344</v>
+        <v>-0.04250439417515747</v>
       </c>
       <c r="C32">
-        <v>-0.02759416651312675</v>
+        <v>-0.01642248027766059</v>
       </c>
       <c r="D32">
-        <v>0.03293333729823816</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0205923002240631</v>
+      </c>
+      <c r="E32">
+        <v>-0.0434906315729856</v>
+      </c>
+      <c r="F32">
+        <v>-0.009713129553376523</v>
+      </c>
+      <c r="G32">
+        <v>0.03275153857891169</v>
+      </c>
+      <c r="H32">
+        <v>-0.00652819046019901</v>
+      </c>
+      <c r="I32">
+        <v>0.01418195454000205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.08744604615113474</v>
+        <v>-0.09433576261816518</v>
       </c>
       <c r="C33">
-        <v>-0.04454546798229489</v>
+        <v>0.006685004199981148</v>
       </c>
       <c r="D33">
-        <v>0.04843842483006747</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05645916062297578</v>
+      </c>
+      <c r="E33">
+        <v>-0.0145860227670883</v>
+      </c>
+      <c r="F33">
+        <v>0.004226388986875627</v>
+      </c>
+      <c r="G33">
+        <v>0.009546100998473179</v>
+      </c>
+      <c r="H33">
+        <v>0.05783570354791497</v>
+      </c>
+      <c r="I33">
+        <v>0.05506277573833408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05906246853042253</v>
+        <v>-0.06728598503592877</v>
       </c>
       <c r="C34">
-        <v>-0.02776733961941309</v>
+        <v>0.01157337691182287</v>
       </c>
       <c r="D34">
-        <v>0.05252674318646404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04701288778786188</v>
+      </c>
+      <c r="E34">
+        <v>-0.01187667110740833</v>
+      </c>
+      <c r="F34">
+        <v>0.02585358703994146</v>
+      </c>
+      <c r="G34">
+        <v>0.02806598072779285</v>
+      </c>
+      <c r="H34">
+        <v>0.0443843700174306</v>
+      </c>
+      <c r="I34">
+        <v>0.0503430486693115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03632216426471138</v>
+        <v>-0.03663528683939683</v>
       </c>
       <c r="C35">
-        <v>-0.01802737766680891</v>
+        <v>0.001212158102822053</v>
       </c>
       <c r="D35">
-        <v>0.01759375176878433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02156127306802063</v>
+      </c>
+      <c r="E35">
+        <v>-0.0184861255903958</v>
+      </c>
+      <c r="F35">
+        <v>-0.01341927850696332</v>
+      </c>
+      <c r="G35">
+        <v>0.003642591445113332</v>
+      </c>
+      <c r="H35">
+        <v>0.03397711479702301</v>
+      </c>
+      <c r="I35">
+        <v>0.02781787773262398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.02714723566909113</v>
+        <v>-0.02826433555639883</v>
       </c>
       <c r="C36">
-        <v>-0.01952936352416706</v>
+        <v>-0.00145720530738299</v>
       </c>
       <c r="D36">
-        <v>0.01919875181589645</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02295699101648775</v>
+      </c>
+      <c r="E36">
+        <v>-0.03247319472561811</v>
+      </c>
+      <c r="F36">
+        <v>0.03202443949286482</v>
+      </c>
+      <c r="G36">
+        <v>0.0145289045405223</v>
+      </c>
+      <c r="H36">
+        <v>0.04018557561272384</v>
+      </c>
+      <c r="I36">
+        <v>0.03184421111396901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05825159613461256</v>
+        <v>-0.0521653715854264</v>
       </c>
       <c r="C38">
-        <v>-0.009985288657721586</v>
+        <v>0.01796796172291317</v>
       </c>
       <c r="D38">
-        <v>0.005868322477146954</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01966339121355523</v>
+      </c>
+      <c r="E38">
+        <v>-0.05181889646200941</v>
+      </c>
+      <c r="F38">
+        <v>-0.00354768728915132</v>
+      </c>
+      <c r="G38">
+        <v>-0.006313279266309388</v>
+      </c>
+      <c r="H38">
+        <v>0.02577876360095553</v>
+      </c>
+      <c r="I38">
+        <v>0.01200002299496921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09533879184540434</v>
+        <v>-0.1024869315415401</v>
       </c>
       <c r="C39">
-        <v>-0.07209031224173981</v>
+        <v>-0.01216528359537622</v>
       </c>
       <c r="D39">
-        <v>0.04143720145221801</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07654665937346454</v>
+      </c>
+      <c r="E39">
+        <v>-0.009097185538283436</v>
+      </c>
+      <c r="F39">
+        <v>0.01421517866819803</v>
+      </c>
+      <c r="G39">
+        <v>0.04354113072023426</v>
+      </c>
+      <c r="H39">
+        <v>0.01214811098379395</v>
+      </c>
+      <c r="I39">
+        <v>0.06173909849879425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07828598026715934</v>
+        <v>-0.05657351583407778</v>
       </c>
       <c r="C40">
-        <v>-0.03926350658466335</v>
+        <v>0.01553768410994323</v>
       </c>
       <c r="D40">
-        <v>0.01206803727533877</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03535926515382411</v>
+      </c>
+      <c r="E40">
+        <v>-0.04040208499505359</v>
+      </c>
+      <c r="F40">
+        <v>-0.03419046669529208</v>
+      </c>
+      <c r="G40">
+        <v>0.07034113297687822</v>
+      </c>
+      <c r="H40">
+        <v>-0.08214682493695463</v>
+      </c>
+      <c r="I40">
+        <v>0.2725607031258479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.04825599546643346</v>
+        <v>-0.0466718149688098</v>
       </c>
       <c r="C41">
-        <v>-0.01659971138951083</v>
+        <v>0.01632055160834873</v>
       </c>
       <c r="D41">
-        <v>0.03396792754605786</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03103518807407266</v>
+      </c>
+      <c r="E41">
+        <v>-0.002756030841974306</v>
+      </c>
+      <c r="F41">
+        <v>-0.01272131553166822</v>
+      </c>
+      <c r="G41">
+        <v>0.006914598881084587</v>
+      </c>
+      <c r="H41">
+        <v>0.03639882569081608</v>
+      </c>
+      <c r="I41">
+        <v>0.01329221447311116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.054785187125127</v>
+        <v>-0.05931518576932814</v>
       </c>
       <c r="C43">
-        <v>-0.03059719770352822</v>
+        <v>0.0009823696188841771</v>
       </c>
       <c r="D43">
-        <v>0.006866907152206317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03632970772887621</v>
+      </c>
+      <c r="E43">
+        <v>-0.01835723405468524</v>
+      </c>
+      <c r="F43">
+        <v>0.0164813292685911</v>
+      </c>
+      <c r="G43">
+        <v>-0.01432298387972671</v>
+      </c>
+      <c r="H43">
+        <v>0.05990667343109437</v>
+      </c>
+      <c r="I43">
+        <v>-0.002666181511902889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09366240823858489</v>
+        <v>-0.0923941293892699</v>
       </c>
       <c r="C44">
-        <v>-0.03555467446530433</v>
+        <v>0.01625002262284144</v>
       </c>
       <c r="D44">
-        <v>0.05224604139649278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05528682156830716</v>
+      </c>
+      <c r="E44">
+        <v>-0.06872806208445696</v>
+      </c>
+      <c r="F44">
+        <v>0.08966749444449779</v>
+      </c>
+      <c r="G44">
+        <v>0.07950533173373743</v>
+      </c>
+      <c r="H44">
+        <v>0.04310973095186925</v>
+      </c>
+      <c r="I44">
+        <v>0.1088921921234452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02765835621569238</v>
+        <v>-0.04054204815997136</v>
       </c>
       <c r="C46">
-        <v>-0.02202551526892249</v>
+        <v>0.0009734315278753675</v>
       </c>
       <c r="D46">
-        <v>0.0318558582347067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04136461301689655</v>
+      </c>
+      <c r="E46">
+        <v>-0.02855702549341072</v>
+      </c>
+      <c r="F46">
+        <v>0.02105358386262477</v>
+      </c>
+      <c r="G46">
+        <v>-0.003369733149512977</v>
+      </c>
+      <c r="H46">
+        <v>0.0392441107744495</v>
+      </c>
+      <c r="I46">
+        <v>0.003660668299112232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03632891606471039</v>
+        <v>-0.04338650820692233</v>
       </c>
       <c r="C47">
-        <v>-0.02127206412923775</v>
+        <v>-0.009011457100807408</v>
       </c>
       <c r="D47">
-        <v>-0.006120385192903386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01721744355191642</v>
+      </c>
+      <c r="E47">
+        <v>-0.04046680899880067</v>
+      </c>
+      <c r="F47">
+        <v>-0.004432672534714779</v>
+      </c>
+      <c r="G47">
+        <v>-0.02954098083027171</v>
+      </c>
+      <c r="H47">
+        <v>0.02799388467150447</v>
+      </c>
+      <c r="I47">
+        <v>0.04217175977073518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.03805440178503516</v>
+        <v>-0.04035784722835341</v>
       </c>
       <c r="C48">
-        <v>-0.02822916671010562</v>
+        <v>-0.005227979269383412</v>
       </c>
       <c r="D48">
-        <v>0.02881882244047148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0251558620710352</v>
+      </c>
+      <c r="E48">
+        <v>-0.03953207198979755</v>
+      </c>
+      <c r="F48">
+        <v>0.01309696704184596</v>
+      </c>
+      <c r="G48">
+        <v>0.02103732065695178</v>
+      </c>
+      <c r="H48">
+        <v>0.01785380270043969</v>
+      </c>
+      <c r="I48">
+        <v>0.004014668203625811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1659367798040803</v>
+        <v>-0.2001025353592809</v>
       </c>
       <c r="C49">
-        <v>-0.04472907095435272</v>
+        <v>-0.01256174402023424</v>
       </c>
       <c r="D49">
-        <v>0.005847017852785596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03455529398143635</v>
+      </c>
+      <c r="E49">
+        <v>0.1828829452543775</v>
+      </c>
+      <c r="F49">
+        <v>0.0001010202555005866</v>
+      </c>
+      <c r="G49">
+        <v>-0.167114217804936</v>
+      </c>
+      <c r="H49">
+        <v>-0.23957916583942</v>
+      </c>
+      <c r="I49">
+        <v>0.01222861269568188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0451511112249529</v>
+        <v>-0.04812219198249561</v>
       </c>
       <c r="C50">
-        <v>-0.0302152871633853</v>
+        <v>0.002072510450271544</v>
       </c>
       <c r="D50">
-        <v>0.03177811533546541</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04066330434726992</v>
+      </c>
+      <c r="E50">
+        <v>-0.02451099006593579</v>
+      </c>
+      <c r="F50">
+        <v>0.008990776284457202</v>
+      </c>
+      <c r="G50">
+        <v>0.007646146858994801</v>
+      </c>
+      <c r="H50">
+        <v>0.07559520328018926</v>
+      </c>
+      <c r="I50">
+        <v>-0.01095563122850649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02382307309376704</v>
+        <v>-0.03343400625862414</v>
       </c>
       <c r="C51">
-        <v>-0.004613236541644906</v>
+        <v>-0.004073545469525191</v>
       </c>
       <c r="D51">
-        <v>-0.004440758948736223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001879593351739476</v>
+      </c>
+      <c r="E51">
+        <v>-0.004615973620461036</v>
+      </c>
+      <c r="F51">
+        <v>0.01428188852770956</v>
+      </c>
+      <c r="G51">
+        <v>-0.02296294269892419</v>
+      </c>
+      <c r="H51">
+        <v>-0.02122078932526363</v>
+      </c>
+      <c r="I51">
+        <v>0.001170376483046849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1532612454118712</v>
+        <v>-0.1607793649700551</v>
       </c>
       <c r="C53">
-        <v>-0.07966274348001465</v>
+        <v>-0.03551412406866854</v>
       </c>
       <c r="D53">
-        <v>-0.0103520918546873</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04373903251745859</v>
+      </c>
+      <c r="E53">
+        <v>0.03176982349926505</v>
+      </c>
+      <c r="F53">
+        <v>-0.004118771147475319</v>
+      </c>
+      <c r="G53">
+        <v>0.000946072719917758</v>
+      </c>
+      <c r="H53">
+        <v>0.1969701337281431</v>
+      </c>
+      <c r="I53">
+        <v>-0.02193889083067942</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0599993313455806</v>
+        <v>-0.06110792409248925</v>
       </c>
       <c r="C54">
-        <v>-0.03094942892930675</v>
+        <v>-0.01229242547549482</v>
       </c>
       <c r="D54">
-        <v>0.01869187849829415</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02128791343971268</v>
+      </c>
+      <c r="E54">
+        <v>-0.05631176486136827</v>
+      </c>
+      <c r="F54">
+        <v>0.03008043627638059</v>
+      </c>
+      <c r="G54">
+        <v>0.06045057816684115</v>
+      </c>
+      <c r="H54">
+        <v>0.04211135630497186</v>
+      </c>
+      <c r="I54">
+        <v>0.05296169439515255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09913089411752457</v>
+        <v>-0.1005456671979667</v>
       </c>
       <c r="C55">
-        <v>-0.05127035364526616</v>
+        <v>-0.01177757158585866</v>
       </c>
       <c r="D55">
-        <v>0.008479350964205502</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03951253722485937</v>
+      </c>
+      <c r="E55">
+        <v>0.006417441768238173</v>
+      </c>
+      <c r="F55">
+        <v>0.01896562169668258</v>
+      </c>
+      <c r="G55">
+        <v>0.0223509175100259</v>
+      </c>
+      <c r="H55">
+        <v>0.1567687159860448</v>
+      </c>
+      <c r="I55">
+        <v>0.01814214167235549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1448032096328642</v>
+        <v>-0.151950665202762</v>
       </c>
       <c r="C56">
-        <v>-0.0895742825885147</v>
+        <v>-0.02880235913388295</v>
       </c>
       <c r="D56">
-        <v>-0.00690250619085125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06528183058091465</v>
+      </c>
+      <c r="E56">
+        <v>0.01988383799682382</v>
+      </c>
+      <c r="F56">
+        <v>0.01181350589641891</v>
+      </c>
+      <c r="G56">
+        <v>0.01250215369467585</v>
+      </c>
+      <c r="H56">
+        <v>0.1966405397112908</v>
+      </c>
+      <c r="I56">
+        <v>-0.05300858781909346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1220605257922941</v>
+        <v>-0.09074990169898527</v>
       </c>
       <c r="C58">
-        <v>0.0152825070696139</v>
+        <v>0.06785588487858973</v>
       </c>
       <c r="D58">
-        <v>0.05414131333552936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.001301060416240881</v>
+      </c>
+      <c r="E58">
+        <v>-0.104347924402225</v>
+      </c>
+      <c r="F58">
+        <v>0.04078645892992225</v>
+      </c>
+      <c r="G58">
+        <v>-0.04720337775993089</v>
+      </c>
+      <c r="H58">
+        <v>-0.1769122267491466</v>
+      </c>
+      <c r="I58">
+        <v>0.4848902806312993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1235873367925101</v>
+        <v>-0.152392226113256</v>
       </c>
       <c r="C59">
-        <v>-0.05179179887743083</v>
+        <v>-0.2558367375147851</v>
       </c>
       <c r="D59">
-        <v>-0.4225807956417665</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2621677709468911</v>
+      </c>
+      <c r="E59">
+        <v>-0.02492620842740589</v>
+      </c>
+      <c r="F59">
+        <v>0.01231275523933625</v>
+      </c>
+      <c r="G59">
+        <v>0.007743202967033558</v>
+      </c>
+      <c r="H59">
+        <v>0.02155110778819387</v>
+      </c>
+      <c r="I59">
+        <v>-0.01415934803429796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2118727974139779</v>
+        <v>-0.2408709874603376</v>
       </c>
       <c r="C60">
-        <v>-0.09290806402238494</v>
+        <v>-0.03181531419478094</v>
       </c>
       <c r="D60">
-        <v>-0.007239395096160622</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.06330009276323188</v>
+      </c>
+      <c r="E60">
+        <v>0.1291882824970385</v>
+      </c>
+      <c r="F60">
+        <v>0.03544783485658977</v>
+      </c>
+      <c r="G60">
+        <v>-0.0394998448181018</v>
+      </c>
+      <c r="H60">
+        <v>-0.1572573398136985</v>
+      </c>
+      <c r="I60">
+        <v>-0.03561953445055054</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07665011788469801</v>
+        <v>-0.08390268877507365</v>
       </c>
       <c r="C61">
-        <v>-0.04888979148610142</v>
+        <v>-0.006344229185941722</v>
       </c>
       <c r="D61">
-        <v>0.02872258395726454</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05419481902526769</v>
+      </c>
+      <c r="E61">
+        <v>-0.007187736361978437</v>
+      </c>
+      <c r="F61">
+        <v>0.02137041069763763</v>
+      </c>
+      <c r="G61">
+        <v>0.03729865043040867</v>
+      </c>
+      <c r="H61">
+        <v>0.06881509923568863</v>
+      </c>
+      <c r="I61">
+        <v>0.02425827473608016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1283345174541907</v>
+        <v>-0.1365978919709531</v>
       </c>
       <c r="C62">
-        <v>-0.0477215862413004</v>
+        <v>0.001056689197969534</v>
       </c>
       <c r="D62">
-        <v>-0.002710109971320585</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04532526932677127</v>
+      </c>
+      <c r="E62">
+        <v>0.03826906935561551</v>
+      </c>
+      <c r="F62">
+        <v>-0.03042907532466064</v>
+      </c>
+      <c r="G62">
+        <v>0.0354797856305112</v>
+      </c>
+      <c r="H62">
+        <v>0.1931018302852749</v>
+      </c>
+      <c r="I62">
+        <v>-0.1075376322336325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05100075669220441</v>
+        <v>-0.04853675820605922</v>
       </c>
       <c r="C63">
-        <v>-0.02563965631038864</v>
+        <v>-0.0001368369180372035</v>
       </c>
       <c r="D63">
-        <v>0.02686728857332728</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02781160899100983</v>
+      </c>
+      <c r="E63">
+        <v>-0.03538041924669202</v>
+      </c>
+      <c r="F63">
+        <v>0.004785001316331097</v>
+      </c>
+      <c r="G63">
+        <v>0.04004910415116046</v>
+      </c>
+      <c r="H63">
+        <v>0.03773540566653845</v>
+      </c>
+      <c r="I63">
+        <v>-0.01366803162402529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1077978238420271</v>
+        <v>-0.1125085367153295</v>
       </c>
       <c r="C64">
-        <v>-0.04461503375999541</v>
+        <v>-0.009748202988964168</v>
       </c>
       <c r="D64">
-        <v>0.01723865193141139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03702658067661899</v>
+      </c>
+      <c r="E64">
+        <v>-0.03098976777509623</v>
+      </c>
+      <c r="F64">
+        <v>0.04789284385102949</v>
+      </c>
+      <c r="G64">
+        <v>0.05409579369546071</v>
+      </c>
+      <c r="H64">
+        <v>0.006625560327847405</v>
+      </c>
+      <c r="I64">
+        <v>0.021633480171166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1281141787407593</v>
+        <v>-0.1328538849953994</v>
       </c>
       <c r="C65">
-        <v>-0.05853188694077725</v>
+        <v>-0.03125359761111132</v>
       </c>
       <c r="D65">
-        <v>0.007594972047405094</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.02987658778466833</v>
+      </c>
+      <c r="E65">
+        <v>0.007899328922969509</v>
+      </c>
+      <c r="F65">
+        <v>0.0410998706961935</v>
+      </c>
+      <c r="G65">
+        <v>0.07626575770438375</v>
+      </c>
+      <c r="H65">
+        <v>-0.186283231640058</v>
+      </c>
+      <c r="I65">
+        <v>-0.0141803836484068</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1469012373823194</v>
+        <v>-0.1495144542295824</v>
       </c>
       <c r="C66">
-        <v>-0.09210298473713446</v>
+        <v>0.006955389103269695</v>
       </c>
       <c r="D66">
-        <v>0.08797323360435771</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1181525575204758</v>
+      </c>
+      <c r="E66">
+        <v>0.02621848560839747</v>
+      </c>
+      <c r="F66">
+        <v>0.004199405545584081</v>
+      </c>
+      <c r="G66">
+        <v>0.08509913812250815</v>
+      </c>
+      <c r="H66">
+        <v>0.07723677370792796</v>
+      </c>
+      <c r="I66">
+        <v>0.0723134249703962</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0858059862991387</v>
+        <v>-0.09028543035849225</v>
       </c>
       <c r="C67">
-        <v>-0.01691235720225987</v>
+        <v>0.01848995035723011</v>
       </c>
       <c r="D67">
-        <v>0.01383628011160104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03216966189540836</v>
+      </c>
+      <c r="E67">
+        <v>-0.02148476309241073</v>
+      </c>
+      <c r="F67">
+        <v>0.007999016757876603</v>
+      </c>
+      <c r="G67">
+        <v>-0.02658561064566327</v>
+      </c>
+      <c r="H67">
+        <v>0.02048572033130965</v>
+      </c>
+      <c r="I67">
+        <v>-0.02247976485520823</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04908130225987903</v>
+        <v>-0.06658106461051472</v>
       </c>
       <c r="C68">
-        <v>-0.0282225746666854</v>
+        <v>-0.1969693523248997</v>
       </c>
       <c r="D68">
-        <v>-0.2580675303097211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2003329653830218</v>
+      </c>
+      <c r="E68">
+        <v>-0.04224884350713428</v>
+      </c>
+      <c r="F68">
+        <v>0.0160651196199273</v>
+      </c>
+      <c r="G68">
+        <v>0.005810105261660536</v>
+      </c>
+      <c r="H68">
+        <v>0.01462060467602773</v>
+      </c>
+      <c r="I68">
+        <v>0.02592195447030368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05880324618531328</v>
+        <v>-0.05472121501120084</v>
       </c>
       <c r="C69">
-        <v>-0.02467205834261235</v>
+        <v>0.005313157929413527</v>
       </c>
       <c r="D69">
-        <v>0.01990595040416464</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02376904036848974</v>
+      </c>
+      <c r="E69">
+        <v>-0.02237620451643092</v>
+      </c>
+      <c r="F69">
+        <v>-0.01502709926440524</v>
+      </c>
+      <c r="G69">
+        <v>0.001933815829018855</v>
+      </c>
+      <c r="H69">
+        <v>0.04050066029332569</v>
+      </c>
+      <c r="I69">
+        <v>0.01496051722157353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.01232525697571815</v>
+        <v>-0.03300089735926625</v>
       </c>
       <c r="C70">
-        <v>0.00327041697183536</v>
+        <v>0.0003363560360517037</v>
       </c>
       <c r="D70">
-        <v>-0.01482492168785965</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006316030801505851</v>
+      </c>
+      <c r="E70">
+        <v>0.02504511572081171</v>
+      </c>
+      <c r="F70">
+        <v>-0.008367083062064174</v>
+      </c>
+      <c r="G70">
+        <v>-0.02674085413282587</v>
+      </c>
+      <c r="H70">
+        <v>-0.01923965942510247</v>
+      </c>
+      <c r="I70">
+        <v>-0.06563060609022288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04691144965387794</v>
+        <v>-0.07226521785240463</v>
       </c>
       <c r="C71">
-        <v>-0.02428177937294188</v>
+        <v>-0.2126020173611965</v>
       </c>
       <c r="D71">
-        <v>-0.2890659701662822</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2169387279503072</v>
+      </c>
+      <c r="E71">
+        <v>-0.03535936394149448</v>
+      </c>
+      <c r="F71">
+        <v>0.04348837972888424</v>
+      </c>
+      <c r="G71">
+        <v>0.004183953368050598</v>
+      </c>
+      <c r="H71">
+        <v>0.01441915896534378</v>
+      </c>
+      <c r="I71">
+        <v>0.02569971948482885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1411172232203715</v>
+        <v>-0.1421139209973772</v>
       </c>
       <c r="C72">
-        <v>-0.05820398626396864</v>
+        <v>-0.02649636461099978</v>
       </c>
       <c r="D72">
-        <v>-0.01946940296521189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01332400715750822</v>
+      </c>
+      <c r="E72">
+        <v>0.03040574768943881</v>
+      </c>
+      <c r="F72">
+        <v>-0.1590985569448607</v>
+      </c>
+      <c r="G72">
+        <v>0.1238235323883555</v>
+      </c>
+      <c r="H72">
+        <v>-0.006331693072955209</v>
+      </c>
+      <c r="I72">
+        <v>0.04164744263953284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2769343740929342</v>
+        <v>-0.2777601348395603</v>
       </c>
       <c r="C73">
-        <v>-0.08321844735793296</v>
+        <v>0.03706855540589683</v>
       </c>
       <c r="D73">
-        <v>0.04224721075783173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0854472456660611</v>
+      </c>
+      <c r="E73">
+        <v>0.2827108087151631</v>
+      </c>
+      <c r="F73">
+        <v>0.02447762774444325</v>
+      </c>
+      <c r="G73">
+        <v>-0.2605678206457648</v>
+      </c>
+      <c r="H73">
+        <v>-0.362366388692454</v>
+      </c>
+      <c r="I73">
+        <v>0.2226830277442898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07890531564708619</v>
+        <v>-0.08987631098868396</v>
       </c>
       <c r="C74">
-        <v>-0.07455539752024193</v>
+        <v>-0.02724590507051625</v>
       </c>
       <c r="D74">
-        <v>0.00378356890632097</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06371138077541631</v>
+      </c>
+      <c r="E74">
+        <v>0.009863229696607738</v>
+      </c>
+      <c r="F74">
+        <v>-0.002313144966055837</v>
+      </c>
+      <c r="G74">
+        <v>-0.02788792612043339</v>
+      </c>
+      <c r="H74">
+        <v>0.1327064004697296</v>
+      </c>
+      <c r="I74">
+        <v>0.02896291921601695</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1085967419508614</v>
+        <v>-0.1045813944101274</v>
       </c>
       <c r="C75">
-        <v>-0.04791977739089642</v>
+        <v>0.0004951936519611308</v>
       </c>
       <c r="D75">
-        <v>0.001076533202780708</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03168460177944524</v>
+      </c>
+      <c r="E75">
+        <v>0.0008903953001421306</v>
+      </c>
+      <c r="F75">
+        <v>-0.001944428918963696</v>
+      </c>
+      <c r="G75">
+        <v>-0.003082927493150667</v>
+      </c>
+      <c r="H75">
+        <v>0.1127329934910636</v>
+      </c>
+      <c r="I75">
+        <v>-0.05120931711663362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1284246227790907</v>
+        <v>-0.1352210129582382</v>
       </c>
       <c r="C76">
-        <v>-0.06910697159545855</v>
+        <v>-0.009463810475114666</v>
       </c>
       <c r="D76">
-        <v>0.02040305424818184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06912427757563477</v>
+      </c>
+      <c r="E76">
+        <v>0.0008871544627014927</v>
+      </c>
+      <c r="F76">
+        <v>0.03922911764162307</v>
+      </c>
+      <c r="G76">
+        <v>0.02492493264820559</v>
+      </c>
+      <c r="H76">
+        <v>0.2559983601177935</v>
+      </c>
+      <c r="I76">
+        <v>-0.05904140877523641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1250561193455144</v>
+        <v>-0.09952219582564462</v>
       </c>
       <c r="C77">
-        <v>-0.01906359151406934</v>
+        <v>0.04261160422329167</v>
       </c>
       <c r="D77">
-        <v>0.07079719484765036</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02697175292558547</v>
+      </c>
+      <c r="E77">
+        <v>-0.05404570447087289</v>
+      </c>
+      <c r="F77">
+        <v>0.09839703764101193</v>
+      </c>
+      <c r="G77">
+        <v>0.7684483574909581</v>
+      </c>
+      <c r="H77">
+        <v>-0.3146364800375936</v>
+      </c>
+      <c r="I77">
+        <v>-0.2947942133339806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1073079959809315</v>
+        <v>-0.1504079594585083</v>
       </c>
       <c r="C78">
-        <v>-0.04805501439902235</v>
+        <v>5.409279169630527e-05</v>
       </c>
       <c r="D78">
-        <v>0.07861281763844676</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0881328463892586</v>
+      </c>
+      <c r="E78">
+        <v>-0.04780608288860111</v>
+      </c>
+      <c r="F78">
+        <v>0.05896648376011687</v>
+      </c>
+      <c r="G78">
+        <v>0.02268789428070815</v>
+      </c>
+      <c r="H78">
+        <v>-0.1106332016813855</v>
+      </c>
+      <c r="I78">
+        <v>0.06063526624592226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1389095498081856</v>
+        <v>-0.1431545898090856</v>
       </c>
       <c r="C79">
-        <v>-0.06273942988855773</v>
+        <v>-0.002518251055014428</v>
       </c>
       <c r="D79">
-        <v>0.02903267337694983</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05671597702660103</v>
+      </c>
+      <c r="E79">
+        <v>0.01403153420053359</v>
+      </c>
+      <c r="F79">
+        <v>0.0197240188158832</v>
+      </c>
+      <c r="G79">
+        <v>0.02638063041532851</v>
+      </c>
+      <c r="H79">
+        <v>0.1691663357959429</v>
+      </c>
+      <c r="I79">
+        <v>-0.02429525965592972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03407948789507012</v>
+        <v>-0.03885151247972755</v>
       </c>
       <c r="C80">
-        <v>-0.02423483674165937</v>
+        <v>-0.008627236991709168</v>
       </c>
       <c r="D80">
-        <v>0.02640538755199827</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02082317702918698</v>
+      </c>
+      <c r="E80">
+        <v>0.04518048663294973</v>
+      </c>
+      <c r="F80">
+        <v>-0.0006691334791587615</v>
+      </c>
+      <c r="G80">
+        <v>-0.01371565657160991</v>
+      </c>
+      <c r="H80">
+        <v>0.02276221145327248</v>
+      </c>
+      <c r="I80">
+        <v>0.09220966896890115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1283359120769555</v>
+        <v>-0.1289812981590329</v>
       </c>
       <c r="C81">
-        <v>-0.07281482490256649</v>
+        <v>-0.01907756830776039</v>
       </c>
       <c r="D81">
-        <v>0.01242825071944429</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04898712465125971</v>
+      </c>
+      <c r="E81">
+        <v>0.01093426974070039</v>
+      </c>
+      <c r="F81">
+        <v>0.02075033134047269</v>
+      </c>
+      <c r="G81">
+        <v>0.00308288564500979</v>
+      </c>
+      <c r="H81">
+        <v>0.1603455776706887</v>
+      </c>
+      <c r="I81">
+        <v>0.006330063899382191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1290260290683305</v>
+        <v>-0.1298694923090062</v>
       </c>
       <c r="C82">
-        <v>-0.06619769661095633</v>
+        <v>-0.01850629768021338</v>
       </c>
       <c r="D82">
-        <v>0.005955248510771499</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04752376353524622</v>
+      </c>
+      <c r="E82">
+        <v>0.02196408486484324</v>
+      </c>
+      <c r="F82">
+        <v>0.03656395982613581</v>
+      </c>
+      <c r="G82">
+        <v>-0.001391172867435474</v>
+      </c>
+      <c r="H82">
+        <v>0.2402207130109882</v>
+      </c>
+      <c r="I82">
+        <v>-0.06122569348973106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06470708673259645</v>
+        <v>-0.07905687450009159</v>
       </c>
       <c r="C83">
-        <v>0.02732880359887049</v>
+        <v>0.04414403845969706</v>
       </c>
       <c r="D83">
-        <v>0.0199100901006647</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0002386936082464489</v>
+      </c>
+      <c r="E83">
+        <v>-0.02233710122385342</v>
+      </c>
+      <c r="F83">
+        <v>0.03972324427947901</v>
+      </c>
+      <c r="G83">
+        <v>-0.05356543018261102</v>
+      </c>
+      <c r="H83">
+        <v>-0.0126024813868022</v>
+      </c>
+      <c r="I83">
+        <v>0.07412681672668034</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.03051927372437256</v>
+        <v>-0.0330770681879505</v>
       </c>
       <c r="C84">
-        <v>-0.04429047975778235</v>
+        <v>-0.003714047521898231</v>
       </c>
       <c r="D84">
-        <v>0.03034695402770602</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.05097462225194802</v>
+      </c>
+      <c r="E84">
+        <v>-0.02170860587197653</v>
+      </c>
+      <c r="F84">
+        <v>-0.04235336722513965</v>
+      </c>
+      <c r="G84">
+        <v>-0.01345795392645408</v>
+      </c>
+      <c r="H84">
+        <v>0.02899591218272815</v>
+      </c>
+      <c r="I84">
+        <v>0.05261505337872437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1149419755189685</v>
+        <v>-0.1201174081065841</v>
       </c>
       <c r="C85">
-        <v>-0.04211589277558554</v>
+        <v>0.005993727896032271</v>
       </c>
       <c r="D85">
-        <v>0.04412992245937188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04599908613797168</v>
+      </c>
+      <c r="E85">
+        <v>-0.004661819912002804</v>
+      </c>
+      <c r="F85">
+        <v>0.04392976342084568</v>
+      </c>
+      <c r="G85">
+        <v>0.004929260229103033</v>
+      </c>
+      <c r="H85">
+        <v>0.1494107440473716</v>
+      </c>
+      <c r="I85">
+        <v>-0.007001760579638632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04935838721315376</v>
+        <v>-0.04985176691936533</v>
       </c>
       <c r="C86">
-        <v>-0.03332954685450112</v>
+        <v>0.008895616134850041</v>
       </c>
       <c r="D86">
-        <v>0.06785933978029179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04481747128500646</v>
+      </c>
+      <c r="E86">
+        <v>-0.0300456658284954</v>
+      </c>
+      <c r="F86">
+        <v>0.02285095494381946</v>
+      </c>
+      <c r="G86">
+        <v>-0.0136283478069191</v>
+      </c>
+      <c r="H86">
+        <v>-0.04115553970811187</v>
+      </c>
+      <c r="I86">
+        <v>-0.05497157557766214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1227186456997417</v>
+        <v>-0.1259797370540796</v>
       </c>
       <c r="C87">
-        <v>-0.07482031035420639</v>
+        <v>0.007763932493922707</v>
       </c>
       <c r="D87">
-        <v>0.06863841955532833</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08380258990220998</v>
+      </c>
+      <c r="E87">
+        <v>-0.02597550219908895</v>
+      </c>
+      <c r="F87">
+        <v>0.03072442561879915</v>
+      </c>
+      <c r="G87">
+        <v>0.1505983132802767</v>
+      </c>
+      <c r="H87">
+        <v>-0.08109426832001983</v>
+      </c>
+      <c r="I87">
+        <v>0.003159238435445112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05713313153756815</v>
+        <v>-0.06446914825718157</v>
       </c>
       <c r="C88">
-        <v>-0.03434685315178528</v>
+        <v>0.002269201491347916</v>
       </c>
       <c r="D88">
-        <v>0.02703047929755955</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04737003874249882</v>
+      </c>
+      <c r="E88">
+        <v>9.145972977642743e-05</v>
+      </c>
+      <c r="F88">
+        <v>0.02359522811930966</v>
+      </c>
+      <c r="G88">
+        <v>0.005783693254978646</v>
+      </c>
+      <c r="H88">
+        <v>0.04034337236589517</v>
+      </c>
+      <c r="I88">
+        <v>0.0115729674561791</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07775042469808388</v>
+        <v>-0.1131568422377429</v>
       </c>
       <c r="C89">
-        <v>-0.04736788185772271</v>
+        <v>-0.2673161524560904</v>
       </c>
       <c r="D89">
-        <v>-0.3214297202516512</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2522592870580367</v>
+      </c>
+      <c r="E89">
+        <v>-0.0472489002428101</v>
+      </c>
+      <c r="F89">
+        <v>0.07932045283509835</v>
+      </c>
+      <c r="G89">
+        <v>-0.02774323643207477</v>
+      </c>
+      <c r="H89">
+        <v>0.02533356420355932</v>
+      </c>
+      <c r="I89">
+        <v>0.08114290107045552</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06424089156093656</v>
+        <v>-0.08760963572525614</v>
       </c>
       <c r="C90">
-        <v>-0.0287056160943038</v>
+        <v>-0.2046438767044351</v>
       </c>
       <c r="D90">
-        <v>-0.2769062247706617</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2105856424796019</v>
+      </c>
+      <c r="E90">
+        <v>-0.047477340862366</v>
+      </c>
+      <c r="F90">
+        <v>0.03575578267675166</v>
+      </c>
+      <c r="G90">
+        <v>0.03131815147109543</v>
+      </c>
+      <c r="H90">
+        <v>-0.02041551384640351</v>
+      </c>
+      <c r="I90">
+        <v>0.07522256375615301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09336639644536525</v>
+        <v>-0.09088494899009028</v>
       </c>
       <c r="C91">
-        <v>-0.0509156971311917</v>
+        <v>-0.003913957342939528</v>
       </c>
       <c r="D91">
-        <v>0.006681143708865292</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03970542309527383</v>
+      </c>
+      <c r="E91">
+        <v>2.134540529194033e-05</v>
+      </c>
+      <c r="F91">
+        <v>0.005145447953366673</v>
+      </c>
+      <c r="G91">
+        <v>-0.01586087869976407</v>
+      </c>
+      <c r="H91">
+        <v>0.09139148725751806</v>
+      </c>
+      <c r="I91">
+        <v>-0.03981541755947654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06462801129198933</v>
+        <v>-0.08708934480005427</v>
       </c>
       <c r="C92">
-        <v>-0.03865124045603915</v>
+        <v>-0.2381369046115975</v>
       </c>
       <c r="D92">
-        <v>-0.3338862887084546</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2388948114514398</v>
+      </c>
+      <c r="E92">
+        <v>-0.04844266975462277</v>
+      </c>
+      <c r="F92">
+        <v>0.0454381405822985</v>
+      </c>
+      <c r="G92">
+        <v>0.004335145378101876</v>
+      </c>
+      <c r="H92">
+        <v>0.02812801921471838</v>
+      </c>
+      <c r="I92">
+        <v>0.02808096569029002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.0538593574630097</v>
+        <v>-0.08298103861480272</v>
       </c>
       <c r="C93">
-        <v>-0.04455559223134132</v>
+        <v>-0.2339820251688901</v>
       </c>
       <c r="D93">
-        <v>-0.3075929048169681</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2143457102366496</v>
+      </c>
+      <c r="E93">
+        <v>-0.01150883823413944</v>
+      </c>
+      <c r="F93">
+        <v>0.03248255707441492</v>
+      </c>
+      <c r="G93">
+        <v>0.02346208137935283</v>
+      </c>
+      <c r="H93">
+        <v>0.0001425643180325142</v>
+      </c>
+      <c r="I93">
+        <v>0.01005316148076035</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1326731875222978</v>
+        <v>-0.1276376507291582</v>
       </c>
       <c r="C94">
-        <v>-0.0341982761086605</v>
+        <v>0.02295295644286733</v>
       </c>
       <c r="D94">
-        <v>0.04501716935147398</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03996199739932407</v>
+      </c>
+      <c r="E94">
+        <v>0.02245004124589045</v>
+      </c>
+      <c r="F94">
+        <v>0.015293292745996</v>
+      </c>
+      <c r="G94">
+        <v>-0.03632211398987187</v>
+      </c>
+      <c r="H94">
+        <v>0.108540290549126</v>
+      </c>
+      <c r="I94">
+        <v>0.01339015837731642</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1232495855180839</v>
+        <v>-0.1339033478562389</v>
       </c>
       <c r="C95">
-        <v>-0.03109662853557418</v>
+        <v>0.02962360784729198</v>
       </c>
       <c r="D95">
-        <v>0.06425327713051449</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05792643264365793</v>
+      </c>
+      <c r="E95">
+        <v>0.001877152503424815</v>
+      </c>
+      <c r="F95">
+        <v>0.04832243175590603</v>
+      </c>
+      <c r="G95">
+        <v>0.03605086315224098</v>
+      </c>
+      <c r="H95">
+        <v>-0.1177943238511475</v>
+      </c>
+      <c r="I95">
+        <v>-0.04490788189161483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2308389452468333</v>
+        <v>-0.1927435852052942</v>
       </c>
       <c r="C97">
-        <v>-0.04507154534619386</v>
+        <v>-0.01226688318624228</v>
       </c>
       <c r="D97">
-        <v>-0.124155597051167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06534012335679698</v>
+      </c>
+      <c r="E97">
+        <v>-0.04148949986791385</v>
+      </c>
+      <c r="F97">
+        <v>-0.9324901284516425</v>
+      </c>
+      <c r="G97">
+        <v>0.09527190341959454</v>
+      </c>
+      <c r="H97">
+        <v>-0.01558444520075797</v>
+      </c>
+      <c r="I97">
+        <v>0.03154597966044455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.246589196119632</v>
+        <v>-0.2782393883356636</v>
       </c>
       <c r="C98">
-        <v>-0.05464276401954789</v>
+        <v>0.0109669424903776</v>
       </c>
       <c r="D98">
-        <v>0.01185474345330754</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04316167274262796</v>
+      </c>
+      <c r="E98">
+        <v>0.2048835558150909</v>
+      </c>
+      <c r="F98">
+        <v>0.003494400585892589</v>
+      </c>
+      <c r="G98">
+        <v>-0.3217340409322451</v>
+      </c>
+      <c r="H98">
+        <v>-0.1418886287930965</v>
+      </c>
+      <c r="I98">
+        <v>-0.5772535470966952</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.4026464866077322</v>
+        <v>-0.2552730187957929</v>
       </c>
       <c r="C99">
-        <v>0.8972394402339329</v>
+        <v>0.7269432913524015</v>
       </c>
       <c r="D99">
-        <v>0.00380064946068481</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.602913185332917</v>
+      </c>
+      <c r="E99">
+        <v>-0.08384530300176707</v>
+      </c>
+      <c r="F99">
+        <v>0.08449442856910583</v>
+      </c>
+      <c r="G99">
+        <v>-0.003831102389314495</v>
+      </c>
+      <c r="H99">
+        <v>0.07366753781622629</v>
+      </c>
+      <c r="I99">
+        <v>0.003218589929785348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.04745215086954088</v>
+        <v>-0.0518153819418603</v>
       </c>
       <c r="C101">
-        <v>-0.04096103114945081</v>
+        <v>-0.02051687549893616</v>
       </c>
       <c r="D101">
-        <v>-0.000583686364648839</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02897183099657646</v>
+      </c>
+      <c r="E101">
+        <v>-0.04381580252179548</v>
+      </c>
+      <c r="F101">
+        <v>0.02869832571661529</v>
+      </c>
+      <c r="G101">
+        <v>0.008805306576725585</v>
+      </c>
+      <c r="H101">
+        <v>0.09363529749082744</v>
+      </c>
+      <c r="I101">
+        <v>0.006885377170175615</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
